--- a/biology/Zoologie/Édouard-Raoul_Brygoo/Édouard-Raoul_Brygoo.xlsx
+++ b/biology/Zoologie/Édouard-Raoul_Brygoo/Édouard-Raoul_Brygoo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard-Raoul_Brygoo</t>
+          <t>Édouard-Raoul_Brygoo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard-Raoul Brygoo est un médecin et biologiste français né le 22 avril 1920 à Lille et mort le 8 février 2016 à Paris. Il est connu pour ses travaux sur la résistance des organismes vivants aux radiations ionisantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard-Raoul_Brygoo</t>
+          <t>Édouard-Raoul_Brygoo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Édouard-Raoul Brygoo fait ses études supérieures à l'École du service de santé des armées de Bordeaux, obtenant son doctorat en 1946 avec une thèse intitulée : Essai de bromatologie entomologique : les Insectes comestibles[1], relevant leurs qualités nutritives mais aussi pharmacologiques. En 1949 il entre à l'institut Pasteur de Paris, où il travaille sur les bactéries anaérobies. L'année suivante, il est affecté au centre de recherches de l'institut Pasteur à Saïgon, capitale d'un Vietnam non-communiste tout juste indépendant. En 1954 il est nommé au Centre de recherches de l'institut Pasteur à Antananarivo, capitale de Madagascar, dont il devient le directeur de 1964 à 1972. Brygoo passe en 1974 officier de réserve avec le grade de « Médecin-général » et revient en France l'année suivante. Il rejoint alors comme civil le département des recherches outre-mer de l'institut Pasteur et dirige également le LERAI (laboratoire d'étude sur la résistance des animaux à l'irradiation) du Muséum national d'histoire naturelle, où il est nommé en 1977 professeur de zoologie. De 1978 à 1989 il dirige le laboratoire d'Herpétologie de cet établissement.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Édouard-Raoul Brygoo fait ses études supérieures à l'École du service de santé des armées de Bordeaux, obtenant son doctorat en 1946 avec une thèse intitulée : Essai de bromatologie entomologique : les Insectes comestibles, relevant leurs qualités nutritives mais aussi pharmacologiques. En 1949 il entre à l'institut Pasteur de Paris, où il travaille sur les bactéries anaérobies. L'année suivante, il est affecté au centre de recherches de l'institut Pasteur à Saïgon, capitale d'un Vietnam non-communiste tout juste indépendant. En 1954 il est nommé au Centre de recherches de l'institut Pasteur à Antananarivo, capitale de Madagascar, dont il devient le directeur de 1964 à 1972. Brygoo passe en 1974 officier de réserve avec le grade de « Médecin-général » et revient en France l'année suivante. Il rejoint alors comme civil le département des recherches outre-mer de l'institut Pasteur et dirige également le LERAI (laboratoire d'étude sur la résistance des animaux à l'irradiation) du Muséum national d'histoire naturelle, où il est nommé en 1977 professeur de zoologie. De 1978 à 1989 il dirige le laboratoire d'Herpétologie de cet établissement.
 Il s'intéresse aussi à partir des années 1950 à la parasitologie. Il travaille alors avec le professeur Alain Chabaud sur les cycles des parasites et notamment sur les nématodes. Par ailleurs, c'est un intrépide explorateur qui parcourt les espaces les moins accessibles de l'environnement en compagnie de Charles Blanc et/ou de Charles Domergue pour relever la biodiversité de ces biotopes méconnus, particulièrement à Madagascar où il découvre avec eux une vingtaine de nouvelles espèces endémiques de caméléons.
-Édouard-Raoul Brygoo est décédé le 8 février 2016 à l'âge de 95 ans[2].
+Édouard-Raoul Brygoo est décédé le 8 février 2016 à l'âge de 95 ans.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89douard-Raoul_Brygoo</t>
+          <t>Édouard-Raoul_Brygoo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,33 +560,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Caméléons
-Brookesia vadoni (Brygoo &amp; Domergue, 1968)[3]
-Brookesia thieli (Brygoo &amp; Domergue, 1969)[4]
-Brookesia karchei (Brygoo, Blanc &amp; Domergue, 1970)[5]
-Brookesia lambertoni (Brygoo &amp; Domergue, 1970)[6]
-Brookesia therezieni  - Brookesia antoetrae (Brygoo &amp; Domergue, 1970)[6]
-Brookesia peyrierrasi (Brygoo &amp; Domergue, 1974)[7]
-Brookesia betschi (Brygoo, Blanc &amp; Domergue, 1974)[8]
-Brookesia griveaudi (Brygoo, Blanc &amp; Domergue, 1974)[8]
-Calumma tsaratananense (Brygoo &amp; Domergue, 1968)[3]
-Calumma marojezense (Brygoo, Blanc &amp; Domergue, 1970)[9]
-Calumma andringitraense (Brygoo, Blanc &amp; Domergue, 1972)[10]
-Calumma capuroni (Brygoo, Blanc &amp; Domergue, 1972)[10]
-Calumma hilleniusi (Brygoo, Blanc &amp; Domergue, 1973)[11]
-Calumma peyrierasi (Brygoo, Blanc &amp; Domergue, 1974)[12]
-Calumma guillaumeti (Brygoo, Blanc &amp; Domergue, 1974)[12]
-Furcifer petteri (Brygoo &amp; Domergue, 1966)[13]
-Furcifer angeli (Brygoo &amp; Domergue, 1968)[14]
-Furcifer belalandaensis (Brygoo &amp; Domergue, 1970)[15]
-Furcifer tuzetae (Brygoo, Bourgat &amp; Domergue, 1972)[16]
-Palleon nasus pauliani (Brygoo, Blanc &amp; Domergue, 1972)[8]
-Lézards
-Amphiglossus alluaudi (Brygoo, 1981)[17]
-Amphiglossus tsaratananensis (Brygoo, 1981)[17]
-Melanoseps loveridgei (Brygoo &amp; Roux-Estève, 1982)[18]
-Gerrhosaurida
-Zonosaurus haraldmeieri (Brygoo &amp; Böhme, 1985)[19]</t>
+          <t>Caméléons</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brookesia vadoni (Brygoo &amp; Domergue, 1968)
+Brookesia thieli (Brygoo &amp; Domergue, 1969)
+Brookesia karchei (Brygoo, Blanc &amp; Domergue, 1970)
+Brookesia lambertoni (Brygoo &amp; Domergue, 1970)
+Brookesia therezieni  - Brookesia antoetrae (Brygoo &amp; Domergue, 1970)
+Brookesia peyrierrasi (Brygoo &amp; Domergue, 1974)
+Brookesia betschi (Brygoo, Blanc &amp; Domergue, 1974)
+Brookesia griveaudi (Brygoo, Blanc &amp; Domergue, 1974)
+Calumma tsaratananense (Brygoo &amp; Domergue, 1968)
+Calumma marojezense (Brygoo, Blanc &amp; Domergue, 1970)
+Calumma andringitraense (Brygoo, Blanc &amp; Domergue, 1972)
+Calumma capuroni (Brygoo, Blanc &amp; Domergue, 1972)
+Calumma hilleniusi (Brygoo, Blanc &amp; Domergue, 1973)
+Calumma peyrierasi (Brygoo, Blanc &amp; Domergue, 1974)
+Calumma guillaumeti (Brygoo, Blanc &amp; Domergue, 1974)
+Furcifer petteri (Brygoo &amp; Domergue, 1966)
+Furcifer angeli (Brygoo &amp; Domergue, 1968)
+Furcifer belalandaensis (Brygoo &amp; Domergue, 1970)
+Furcifer tuzetae (Brygoo, Bourgat &amp; Domergue, 1972)
+Palleon nasus pauliani (Brygoo, Blanc &amp; Domergue, 1972)</t>
         </is>
       </c>
     </row>
@@ -582,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89douard-Raoul_Brygoo</t>
+          <t>Édouard-Raoul_Brygoo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,19 +610,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Espèces dédiées à Édouard-Raoul Brygoo</t>
+          <t>Espèces décrites par Édouard-Raoul Brygoo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Caméléon terrestre Brookesia brygooi (Raxworthy &amp; Nussbaum, 1995)[20]
-Tortue arachnoïde de Madagascar Pyxis arachnoides brygooi (Vuillemin &amp; Domergue, 1972)[21]
-Zonosaure Zonosaurus brygooi (Lang &amp; Böhme, 1990)[22]
-Serpent Lamprophiidé Brygophis (Domergue &amp; Roger Bour, 1989)[23]
-Puce Ctenocephalides brygooi (Beaucournu, 1975)[24]
-Pou Columbicola brygooi (Tendeiro, 1967)[25]
-Protozoaire Plasmodium brygooi (Telford &amp; Landau, 1987)[26]
-Coccidie Caryospora brygooi (Upton, Freed, Burdick &amp; McAllister, 1990)[27].</t>
+          <t>Lézards</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Amphiglossus alluaudi (Brygoo, 1981)
+Amphiglossus tsaratananensis (Brygoo, 1981)
+Melanoseps loveridgei (Brygoo &amp; Roux-Estève, 1982)</t>
         </is>
       </c>
     </row>
@@ -619,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89douard-Raoul_Brygoo</t>
+          <t>Édouard-Raoul_Brygoo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,49 +648,436 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Espèces décrites par Édouard-Raoul Brygoo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gerrhosaurida</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Zonosaurus haraldmeieri (Brygoo &amp; Böhme, 1985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces dédiées à Édouard-Raoul Brygoo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Caméléon terrestre Brookesia brygooi (Raxworthy &amp; Nussbaum, 1995)
+Tortue arachnoïde de Madagascar Pyxis arachnoides brygooi (Vuillemin &amp; Domergue, 1972)
+Zonosaure Zonosaurus brygooi (Lang &amp; Böhme, 1990)
+Serpent Lamprophiidé Brygophis (Domergue &amp; Roger Bour, 1989)
+Puce Ctenocephalides brygooi (Beaucournu, 1975)
+Pou Columbicola brygooi (Tendeiro, 1967)
+Protozoaire Plasmodium brygooi (Telford &amp; Landau, 1987)
+Coccidie Caryospora brygooi (Upton, Freed, Burdick &amp; McAllister, 1990).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Années 1950
-1951
-Édouard-Raoul Brygoo et J. Demarchi, « Un cas de nécrose hépatique mortelle du mouton à Saïgon. », Bulletin de la Société de Pathologie exotique, vol. 44(9-10),‎ 1951, p. 538-540
-P. De Lajudie, L. Porte et Édouard-Raoul Brygoo, « Sur un cas de Kala-Azar et de mélioïdose observé en Indochine. », Bulletin de la Société de Pathologie exotique, vol. 45(1),‎ 1951, p. 45-48
-1952
-Édouard-Raoul Brygoo et P. De Jaureguiberry, « Un cas de mélioïdose pulmonaire », Bulletin de la Société de Pathologie exotique, vol. 45(1),‎ 1952, p. 62-69
-Édouard-Raoul Brygoo et G. Aigle, « Exemples de la périodicité nocturne de Wuchereria bancrofti au Sud-Vietnam. », Bulletin de la Société de Pathologie exotique, vol. 45(5),‎ 1952, p. 614-617
-1953
-Édouard-Raoul Brygoo, « Action du chloramphénicol sur le bacille de Whitmore. », Bulletin de la Société de Pathologie exotique, vol. 46(2),‎ 1953, p. 169-173
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo et J. Demarchi, « Un cas de nécrose hépatique mortelle du mouton à Saïgon. », Bulletin de la Société de Pathologie exotique, vol. 44(9-10),‎ 1951, p. 538-540
+P. De Lajudie, L. Porte et Édouard-Raoul Brygoo, « Sur un cas de Kala-Azar et de mélioïdose observé en Indochine. », Bulletin de la Société de Pathologie exotique, vol. 45(1),‎ 1951, p. 45-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo et P. De Jaureguiberry, « Un cas de mélioïdose pulmonaire », Bulletin de la Société de Pathologie exotique, vol. 45(1),‎ 1952, p. 62-69
+Édouard-Raoul Brygoo et G. Aigle, « Exemples de la périodicité nocturne de Wuchereria bancrofti au Sud-Vietnam. », Bulletin de la Société de Pathologie exotique, vol. 45(5),‎ 1952, p. 614-617</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo, « Action du chloramphénicol sur le bacille de Whitmore. », Bulletin de la Société de Pathologie exotique, vol. 46(2),‎ 1953, p. 169-173
 Édouard-Raoul Brygoo, « Action de la néomycine sur le bacille de Whitmore », Bulletin de la Société de Pathologie exotique, vol. 46(2),‎ 1953, p. 216-221
 Édouard-Raoul Brygoo et E. Henry, « Action in vitro de divers antibiotiques sur le bacille de Whitmore. », Bulletin de la Société de Pathologie exotique, vol. 46(3),‎ 1953, p. 279-283
 Édouard-Raoul Brygoo, « Contribution à l’étude des agglutinines naturelles pour le bacille de Whitmore. Les agglutinines spécifiques dans quelques cas de mélioïdose. », Bulletin de la Société de Pathologie exotique, vol. 46(3),‎ 1953, p. 347-353
-P. Nicolle, J. Fournier, P. Kirsche, P. De Lajudie, Édouard-Raoul Brygoo, G. Souveine et J. Voelckel, « Distribution des lysotypes du bacille typhique au Vietnam. », Bulletin de la Société de Pathologie exotique, vol. 46(5),‎ 1953, p. 665-667
-1954
-Édouard-Raoul Brygoo et J-J. Quesnel, « Microfilaire sanguinicole chez Corvus albus à Madagascar. », Bulletin de la Société de Pathologie exotique, vol. 47(6),‎ 1954, p. 833-835
-1955
-JL. Anraedt et Édouard-Raoul Brygoo, « Sur un cas de dracunculose scrotale. », Bulletin de la Société de Pathologie exotique, vol. 48(1),‎ 1955, p. 57-58
+P. Nicolle, J. Fournier, P. Kirsche, P. De Lajudie, Édouard-Raoul Brygoo, G. Souveine et J. Voelckel, « Distribution des lysotypes du bacille typhique au Vietnam. », Bulletin de la Société de Pathologie exotique, vol. 46(5),‎ 1953, p. 665-667</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo et J-J. Quesnel, « Microfilaire sanguinicole chez Corvus albus à Madagascar. », Bulletin de la Société de Pathologie exotique, vol. 47(6),‎ 1954, p. 833-835</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>JL. Anraedt et Édouard-Raoul Brygoo, « Sur un cas de dracunculose scrotale. », Bulletin de la Société de Pathologie exotique, vol. 48(1),‎ 1955, p. 57-58
 H. Galliard et Édouard-Raoul Brygoo, « Microfilaria bancrofti var. vauceli, variété nouvelle de la Côte Sud-Est de Madagascar. », Bulletin de la Société de Pathologie exotique, vol. 48(4),‎ 1955, p. 473-475
 G. Souveine, André Dodin, A. Grjebine et Édouard-Raoul Brygoo, « Périodicité des microfilaires sanguines de la côte est de Madagascar. », Bulletin de la Société de Pathologie exotique, vol. 48(5),‎ 1955, p. 669-672
-Édouard-Raoul Brygoo et J. Escolivet, « Enquête sur la filariose aux Comores à Mayotte et à Mohéli. », Bulletin de la Société de Pathologie exotique, vol. 48(6),‎ 1955, p. 833-838
-1956
-Édouard-Raoul Brygoo, « Le diagnostic de la peste par inoculation à la souris de produits pathologiques additionnés de pénicilline. », Bulletin de la Société de Pathologie exotique, vol. 49(3),‎ 1956, p. 409-414
+Édouard-Raoul Brygoo et J. Escolivet, « Enquête sur la filariose aux Comores à Mayotte et à Mohéli. », Bulletin de la Société de Pathologie exotique, vol. 48(6),‎ 1955, p. 833-838</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo, « Le diagnostic de la peste par inoculation à la souris de produits pathologiques additionnés de pénicilline. », Bulletin de la Société de Pathologie exotique, vol. 49(3),‎ 1956, p. 409-414
 Édouard-Raoul Brygoo et B. Kolochine-Erber, « Enquête sur les leptospiroses à Madagascar. », Bulletin de la Société de Pathologie exotique, vol. 49(4),‎ 1956, p. 686-698
-André Dodin et Édouard-Raoul Brygoo, « Pirhemocyton chamæleonis n. sp., parasite des hématies de Chamaeleo lateralis observé à Madagascar. », Bulletin de la Société de Pathologie exotique, vol. 49(5),‎ 1956, p. 807–810
-1957
-André Dodin et Édouard-Raoul Brygoo, « Activité succinodeshydrogènasique de Pasteurella pestis. souche E.V. », Archives de l’Institut Pasteur de Madagascar,‎ 1957, p. 13-16 (lire en ligne)
+André Dodin et Édouard-Raoul Brygoo, « Pirhemocyton chamæleonis n. sp., parasite des hématies de Chamaeleo lateralis observé à Madagascar. », Bulletin de la Société de Pathologie exotique, vol. 49(5),‎ 1956, p. 807–810</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>André Dodin et Édouard-Raoul Brygoo, « Activité succinodeshydrogènasique de Pasteurella pestis. souche E.V. », Archives de l’Institut Pasteur de Madagascar,‎ 1957, p. 13-16 (lire en ligne)
 Édouard-Raoul Brygoo et S. Rajenison, « Présence de centetipsylla madagascariensis (Rothschild) 1900 sur Rattus rattus de Tananarive. », Archives de l’Institut Pasteur de Madagascar,‎ 1957, p. 53-57 (lire en ligne)
 Édouard-Raoul Brygoo et Ratovondrahety, « Sur huit cas de chromoblastomycose diagnostiques à Antalaha. », Archives de l’Institut Pasteur de Madagascar,‎ 1957, p. 71-74 (lire en ligne)
 Édouard-Raoul Brygoo, André Dodin et P. Sureau, « Repas sanguin de Culex fatigans sur Chamaeleo », Archives de l’Institut Pasteur de Madagascar, vol. 26,‎ 1957, p. 58–62 (lire en ligne)
 Édouard-Raoul Brygoo, André Dodin et P. Sureau, « Survie des Culex fatigans gorgés sur Chamaeleo », Archives de l’Institut Pasteur de Madagascar, vol. 26,‎ 1957, p. 63 68 (lire en ligne)
 André Dodin et Édouard-Raoul Brygoo, « La thiamine n’empêche pas Culex fatigans de se nourrir sur Chamaeleo », Archives de l’Institut Pasteur de Madagascar, vol. 26,‎ 1957, p. 69 (lire en ligne)
 André Dodin et Édouard-Raoul Brygoo, « Formation leucocytaire chez Chamaeleo lateralis, processus leucémique à inclusions », Archives de l’Institut Pasteur de Madagascar, vol. 26,‎ 1957, p. 79–81 (lire en ligne)
-Édouard-Raoul Brygoo et André Dodin, « Expériences de transfert de la filaire et de la microfilaire de Chamaeleo oustaleti. », Archives de l’Institut Pasteur de Madagascar, vol. 26,‎ 1957, p. 119–123
-1958
-Édouard-Raoul Brygoo et M. Gonon, « Une épidémie de peste pulmonaire dans le nord-est de Madagascar. », Bulletin de la Société de Pathologie exotique, vol. 51(1),‎ 1958, p. 47-60
-P. Radaody-Ralarosy et Édouard-Raoul Brygoo, « Note sur le cancer à Madagascar; à propos d’une récente monographie de l’Institut National d’Hygiène. », Bulletin de la Société de Pathologie exotique, vol. 51(1),‎ 1958, p. 118-125
-1959
-Édouard-Raoul Brygoo et J-C. Randriamalala, « Différence de colorabilité au Ziehl entre les oeufs de Schistosoma mansoni et ceux de Schistosoma haematobium. », Bulletin de la Société de Pathologie exotique, vol. 52(1),‎ 1959, p. 26-27
+Édouard-Raoul Brygoo et André Dodin, « Expériences de transfert de la filaire et de la microfilaire de Chamaeleo oustaleti. », Archives de l’Institut Pasteur de Madagascar, vol. 26,‎ 1957, p. 119–123</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo et M. Gonon, « Une épidémie de peste pulmonaire dans le nord-est de Madagascar. », Bulletin de la Société de Pathologie exotique, vol. 51(1),‎ 1958, p. 47-60
+P. Radaody-Ralarosy et Édouard-Raoul Brygoo, « Note sur le cancer à Madagascar; à propos d’une récente monographie de l’Institut National d’Hygiène. », Bulletin de la Société de Pathologie exotique, vol. 51(1),‎ 1958, p. 118-125</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo et J-C. Randriamalala, « Différence de colorabilité au Ziehl entre les oeufs de Schistosoma mansoni et ceux de Schistosoma haematobium. », Bulletin de la Société de Pathologie exotique, vol. 52(1),‎ 1959, p. 26-27
 Édouard-Raoul Brygoo, C. Bermond et André Dodin, « Premier cas malgache de rhinosporidiose. », Bulletin de la Société de Pathologie exotique, vol. 52,‎ 1959, p. 137-140
 Édouard-Raoul Brygoo et A. Capron, « Rôle d’hôte intermédiaire de Biomphalaria Madagascariensis (Smith, 1882) dans le cycle de Schistosoma mansoni Sambon, 1907 à Madagascar. Démonstration dans le foyer d’Ambositra. », Bulletin de la Société de Pathologie exotique, vol. 52,‎ 1959, p. 281-283
 A. Capron et Édouard-Raoul Brygoo, « Contribution à la connaissance de la bilharziose intestinale à Schistosoma mansoni à Madagascar. Étude du foyer d’Ambositra. I. - Enquête malacologique et parasitologique. », Bulletin de la Société de Pathologie exotique, vol. 52,‎ 1959, p. 503-515
@@ -684,27 +1085,216 @@
 Édouard-Raoul Brygoo, A. Capron et JC. Randriamalala, « Sur quelques méthodes de coloration sélective des coques d’oeufs d’helminthes parasites de l’homme. », Bulletin de la Société de Pathologie exotique, vol. 52,‎ 1959, p. 655-664
 Édouard-Raoul Brygoo et André Dodin, « Aspects particuliers de la recherche scientifique. Introduction à la pathologie du caméléon. », Bulletin de la Société de Pathologie exotique, vol. 52,‎ 1959, p. 700
 Alain Gabriel Chabaud, R.C. Anderson et Édouard-Raoul Brygoo, « Cinq filaires de reptiles malgaches », Mémoires de l’Institut scientifique de Madagascar, vol. sér. A, 13,‎ 1959, p. 103–126
-Simon Gretillat et Édouard-Raoul Brygoo, « Raillietiella chamaeleonis n. sp. première espèce de Cephalobaenidae (Pentastomida) signalée à Madagascar », Annales de Parasitologie humaine et comparée, vol. 34,‎ 1959, p. 112–120 (lire en ligne)
-Années 1960
-1960
-André Dodin et Édouard-Raoul Brygoo, « Compléments enzymatiques et morphologiques à l’étude de Pyrhemocyton chamæleonis », Bulletin de la Société de Pathologie exotique,, vol. 53,‎ 1960, p. 613–616
-André Dodin et Édouard-Raoul Brygoo, « Compléments morphologiques et enzymatiques à l’étude de l’inclusion leucocythémique de Chamæleo lateralis », Bulletin de la Société de Pathologie exotique, vol. 53,‎ 1960, p. 620–622
-1962
-Simon Gretillat, Édouard-Raoul Brygoo et Charles Antoine Domergue, « Pentastomes de Reptiles malgaches. », Annales de Parasitologie humaine et comparée, vol. 37,‎ 1962, p. 295–313 (lire en ligne)
+Simon Gretillat et Édouard-Raoul Brygoo, « Raillietiella chamaeleonis n. sp. première espèce de Cephalobaenidae (Pentastomida) signalée à Madagascar », Annales de Parasitologie humaine et comparée, vol. 34,‎ 1959, p. 112–120 (lire en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>André Dodin et Édouard-Raoul Brygoo, « Compléments enzymatiques et morphologiques à l’étude de Pyrhemocyton chamæleonis », Bulletin de la Société de Pathologie exotique vol. 53,‎ 1960, p. 613–616
+André Dodin et Édouard-Raoul Brygoo, « Compléments morphologiques et enzymatiques à l’étude de l’inclusion leucocythémique de Chamæleo lateralis », Bulletin de la Société de Pathologie exotique, vol. 53,‎ 1960, p. 620–622</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Simon Gretillat, Édouard-Raoul Brygoo et Charles Antoine Domergue, « Pentastomes de Reptiles malgaches. », Annales de Parasitologie humaine et comparée, vol. 37,‎ 1962, p. 295–313 (lire en ligne)
 P. Sureau, JP. Raynaud, C. Lapeire et Édouard-Raoul Brygoo, « Premier isolement de Toxoplasma gondii à Madagascar. Toxoplasmose spontanée et expérimentale de Lemur catta. », Bulletin de la Société de Pathologie Exotique, vol. 55,‎ 1962, p. 357-362
-Édouard-Raoul Brygoo, P. Sureau et P. Le Noc, « Virus et germes fécaux des mouches de l'agglomération urbaine de Tananarive. », Bulletin de la Société de Pathologie Exotique, vol. 55,‎ 1962, p. 866-881
-1963
-Édouard-Raoul Brygoo, « Contribution à la connaissance de la parasitologie des caméléons malgaches I », Annales de Parasitologie humaine et comparée, vol. 38,‎ 1963, p. 149–334 (lire en ligne)
+Édouard-Raoul Brygoo, P. Sureau et P. Le Noc, « Virus et germes fécaux des mouches de l'agglomération urbaine de Tananarive. », Bulletin de la Société de Pathologie Exotique, vol. 55,‎ 1962, p. 866-881</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo, « Contribution à la connaissance de la parasitologie des caméléons malgaches I », Annales de Parasitologie humaine et comparée, vol. 38,‎ 1963, p. 149–334 (lire en ligne)
 Édouard-Raoul Brygoo, « Contribution à la connaissance de la parasitologie des caméléons malgaches II », Annales de Parasitologie humaine et comparée, vol. 38,‎ 1963, p. 525–739 (lire en ligne)
 Édouard-Raoul Brygoo, « Contribution à la connaissance de la parasitologie des caméléons malgaches », Paris : Masson et Cie,‎ 1963 (lire en ligne)
 Édouard-Raoul Brygoo, « Hématozoaires de Reptiles malgaches. I. Trypanosoma therezieni n. sp. parasite des caméléons de Madagascar. Infestation naturelle et expérimentale. », Archives de l’Institut Pasteur de Madagascar, vol. 31,‎ 1963, p. 133–141
-Édouard-Raoul Brygoo, « Hématozoaires des Reptiles malgaches. II. Hepatozoon chabaudi n. sp. parasite des caméléons de Madagascar », Archives de l’Institut Pasteur de Madagascar, vol. 31,‎ 1963, p. 143–153
-1964
-Édouard-Raoul Brygoo, J. Levaditi, P. Destombes et JC. Guillon, « Adéno-cancer avec « cirrhose bronzée » observé à Madagascar chez un Lemur M. Macaco L. 1766. », Bulletin de la Société de Pathologie Exotique, vol. 57(2),‎ 1964, p. 228-233
+Édouard-Raoul Brygoo, « Hématozoaires des Reptiles malgaches. II. Hepatozoon chabaudi n. sp. parasite des caméléons de Madagascar », Archives de l’Institut Pasteur de Madagascar, vol. 31,‎ 1963, p. 143–153</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo, J. Levaditi, P. Destombes et JC. Guillon, « Adéno-cancer avec « cirrhose bronzée » observé à Madagascar chez un Lemur M. Macaco L. 1766. », Bulletin de la Société de Pathologie Exotique, vol. 57(2),‎ 1964, p. 228-233
 André Dodin et Édouard-Raoul Brygoo, « Effet des monoamines sur la formation des œufs de Schistosoma mansoni. Perspectives thérapeutiques. », Bulletin de la Société de Pathologie Exotique, vol. 57(3),‎ 1964, p. 489-494
-André Dodin et Édouard-Raoul Brygoo, « A propos de dix-neuf cas d'épithélioma calcifié de malherbe observés à Madagascar. », Bulletin de la Société de Pathologie Exotique, vol. 57(6),‎ 1964, p. 1269-1275
-1965
-Édouard-Raoul Brygoo et André Dodin, « A propos de la peste tellurique et de la peste de fouissement. Données malgaches. », Bulletin de la Société de Pathologie Exotique, vol. 58(1),‎ 1965, p. 14-17
+André Dodin et Édouard-Raoul Brygoo, « A propos de dix-neuf cas d'épithélioma calcifié de malherbe observés à Madagascar. », Bulletin de la Société de Pathologie Exotique, vol. 57(6),‎ 1964, p. 1269-1275</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89douard-Raoul_Brygoo</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Édouard-Raoul Brygoo et André Dodin, « A propos de la peste tellurique et de la peste de fouissement. Données malgaches. », Bulletin de la Société de Pathologie Exotique, vol. 58(1),‎ 1965, p. 14-17
 André Dodin, Édouard-Raoul Brygoo, CR. Lambert, Ratovondrahety et JP. Moreau, « Activité du Ciba 32-644 BA sur l'élimination des œufs de Schistosoma mansoni et Schistosoma haematobium. », Bulletin de la Société de Pathologie Exotique, vol. 58(3),‎ 1965, p. 462-471
 G. Audebaud, P. Destombes et Édouard-Raoul Brygoo, « Lésions pancréatiques observées au cours de la bilharziose à Schistosoma mansoni. », Bulletin de la Société de Pathologie Exotique, vol. 58(5),‎ 1965, p. 878-885
 Édouard-Raoul Brygoo et André Dodin, « Enquête sérologique préliminaire sur l'enzootie pesteuse chez les Rattus rattus de Madagascar. », Bulletin de la Société de Pathologie Exotique, vol. 58(6),‎ 1965, p. 988-993
@@ -712,8 +1302,7 @@
 Édouard-Raoul Brygoo, « Description de Trypanosoma brazili E. Brumpt, 1914 », Archives de l’Institut Pasteur de Madagascar, vol. 34,‎ 1965, p. 41–46
 Édouard-Raoul Brygoo, « Hématozoaires des Reptiles malgaches. III. Deux Trypanosomes nouveaux: Trypanosoma haranti n. sp. parasite d’Ophidien et Trypanosoma domerguei n. sp. parasite d’Iguane. », Archives de l’Institut Pasteur de Madagascar, vol. 34,‎ 1965, p. 47–54
 Édouard-Raoul Brygoo, « Hématozoaires des Reptiles malgaches. IV. Les microfilaires de Befilaria urschi Chabaud, Anderson et Brygoo, 1959 et de Madathamugadia hopluri Chabaud, Anderson et Brygoo, 1959 », Archives de l’Institut Pasteur de Madagascar, vol. 34,‎ 1965, p. 55–62
-R. Houin, Yves-Jean Golvan et Édouard-Raoul Brygoo, « Acanthocephalus bigueti n. sp. parasite d’un serpent de Madagascar. », Bulletin de la Société Zoologique de France, vol. 90,‎ 1965, p. 599–605
-1966</t>
+R. Houin, Yves-Jean Golvan et Édouard-Raoul Brygoo, « Acanthocephalus bigueti n. sp. parasite d’un serpent de Madagascar. », Bulletin de la Société Zoologique de France, vol. 90,‎ 1965, p. 599–605</t>
         </is>
       </c>
     </row>
